--- a/src/main/webapp/importTpl/contractUserImportTpl.xlsx
+++ b/src/main/webapp/importTpl/contractUserImportTpl.xlsx
@@ -565,10 +565,10 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>20110203</v>
+        <v>20080101</v>
       </c>
       <c r="F2">
-        <v>20110204</v>
+        <v>20080105</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/importTpl/contractUserImportTpl.xlsx
+++ b/src/main/webapp/importTpl/contractUserImportTpl.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,41 @@
   </si>
   <si>
     <t>张军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试合同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙晖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -571,6 +606,23 @@
         <v>20080105</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>20080201</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/importTpl/contractUserImportTpl.xlsx
+++ b/src/main/webapp/importTpl/contractUserImportTpl.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,41 @@
   </si>
   <si>
     <t>张军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试合同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙晖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -565,10 +600,27 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>20110203</v>
+        <v>20080101</v>
       </c>
       <c r="F2">
-        <v>20110204</v>
+        <v>20080105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>20080201</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/importTpl/contractUserImportTpl.xlsx
+++ b/src/main/webapp/importTpl/contractUserImportTpl.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,58 +29,6 @@
   </si>
   <si>
     <t>加盟日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加盟日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加盟日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,10 +51,6 @@
       </rPr>
       <t>只读取A-F(6列),合同名称和离开日是可选项，其余为必填项。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HT001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w2674</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,12 +115,20 @@
     <t>孙晖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>w2673</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,11 +200,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -339,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -373,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,27 +494,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="51.375" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="10" max="10" width="51.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -580,24 +526,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>20080101</v>
@@ -606,21 +552,24 @@
         <v>20080105</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>20080201</v>
+        <v>20080101</v>
+      </c>
+      <c r="F3">
+        <v>20080101</v>
       </c>
     </row>
   </sheetData>
@@ -628,329 +577,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/webapp/importTpl/contractUserImportTpl.xlsx
+++ b/src/main/webapp/importTpl/contractUserImportTpl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,20 +37,6 @@
   </si>
   <si>
     <t>离开日(可不填)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>只读取A-F(6列),合同名称和离开日是可选项，其余为必填项。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,12 +109,29 @@
     <t>HT001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>日期必须是日期格式</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只读取A-F(6列),合同名称和离开日是可选项，其余为必填项。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +168,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,10 +199,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -498,13 +511,13 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" customWidth="1"/>
     <col min="10" max="10" width="51.3984375" customWidth="1"/>
   </cols>
@@ -522,59 +535,59 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>42792</v>
+      </c>
+      <c r="F2" s="3">
+        <v>42912</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>20080101</v>
-      </c>
-      <c r="F2">
-        <v>20080105</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>20080101</v>
-      </c>
-      <c r="F3">
-        <v>20080101</v>
+      <c r="E3" s="3">
+        <v>42792</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>